--- a/biology/Zoologie/Histocidaris/Histocidaris.xlsx
+++ b/biology/Zoologie/Histocidaris/Histocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Histocidaris est un genre d'oursins, le seul de la famille des Histocidaridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers cidaroïdes : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
 Le disque apical comporte des épines éparses autour des pores génitaux, oculaires et périproctaux, mais laissant la majeure partie des plaques génitales nues.
@@ -522,8 +536,8 @@
 Le péristome porte des zones ambulacraires bisériées et des plaques interradiales particulières.
 Sur la face interne du péristome, chaque plaque ambulacraire porte une sorte de dent dirigée vers l'extérieur.
 Les radioles primaires sont longues et cylindriques, et peuvent être lisses ou couvertes d'épines, mais sans poils corticaux. Les radioles adorales sont courte, incurvées et très dentelées. Le col peut parfois être assez long.
-Les radioles secondaires sont longues et aplaties[1].
-Cette famille est apparue au Crétacé supérieur (Cénomanien[1]).
+Les radioles secondaires sont longues et aplaties.
+Cette famille est apparue au Crétacé supérieur (Cénomanien).
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Histocidaris acutispina
